--- a/working_notebooks/Tang/result/summary_1.xlsx
+++ b/working_notebooks/Tang/result/summary_1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15440" windowHeight="23460" tabRatio="500"/>
+    <workbookView xWindow="24080" yWindow="940" windowWidth="15440" windowHeight="23460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,9 +45,6 @@
     <t>8. AHE cl interp buf uchar</t>
   </si>
   <si>
-    <t>8'. AHE cl interp buf uchar (32 bin)</t>
-  </si>
-  <si>
     <t>9. AHE cl interp buf uchar bank</t>
   </si>
   <si>
@@ -64,6 +61,9 @@
   </si>
   <si>
     <t>Methods</t>
+  </si>
+  <si>
+    <t>10. AHE cl interp buf uchar bank mod</t>
   </si>
 </sst>
 </file>
@@ -494,30 +494,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="35.6640625" style="1" customWidth="1"/>
     <col min="2" max="5" width="13.83203125" style="1" customWidth="1"/>
     <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16" customHeight="1">
@@ -629,33 +631,33 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>197.2</v>
+        <v>203.91</v>
       </c>
       <c r="C10" s="1">
-        <v>166.98</v>
+        <v>289.16000000000003</v>
       </c>
       <c r="D10" s="1">
-        <v>364.17</v>
+        <v>493.08</v>
       </c>
       <c r="E10" s="1">
-        <v>2.0230000000000001</v>
+        <v>2.5552000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B11" s="1">
-        <v>203.91</v>
-      </c>
-      <c r="C11" s="1">
-        <v>289.16000000000003</v>
+        <v>241.74392</v>
+      </c>
+      <c r="C11" s="2">
+        <v>399.85935999999998</v>
       </c>
       <c r="D11" s="1">
-        <v>493.08</v>
-      </c>
-      <c r="E11" s="1">
-        <v>2.5552000000000001</v>
+        <v>399.85935999999998</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1.94112</v>
       </c>
     </row>
   </sheetData>
